--- a/users/XiaodanLyu/fct_relabel.xlsx
+++ b/users/XiaodanLyu/fct_relabel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyux\odrive\Google Drive - Gmail\dmc2018\users\XiaodanLyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63139\Documents\GitHub\dmc2018\users\XiaodanLyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8237" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>old_levels</t>
   </si>
@@ -125,9 +125,6 @@
     <t>adidas</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
     <t>football</t>
   </si>
   <si>
@@ -155,110 +152,149 @@
     <t>Jordan</t>
   </si>
   <si>
-    <t>Danmark</t>
-  </si>
-  <si>
     <t>KangaROOS</t>
   </si>
   <si>
+    <t>Lotto</t>
+  </si>
+  <si>
+    <t>Mizuno</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Athletic</t>
+  </si>
+  <si>
+    <t>PUMA</t>
+  </si>
+  <si>
+    <t>Reebok</t>
+  </si>
+  <si>
+    <t>sneaker</t>
+  </si>
+  <si>
+    <t>Reusch</t>
+  </si>
+  <si>
+    <t>underwear</t>
+  </si>
+  <si>
+    <t>Sport2000</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>Stance</t>
+  </si>
+  <si>
+    <t>Uhlsport</t>
+  </si>
+  <si>
+    <t>Under Armour</t>
+  </si>
+  <si>
+    <t>New Balance</t>
+  </si>
+  <si>
+    <t>brand.popularity</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Asics**</t>
+  </si>
+  <si>
+    <t>Under Armour**</t>
+  </si>
+  <si>
+    <t>Other brands</t>
+  </si>
+  <si>
+    <t>source: surve results, https://www.statista.com/statistics/412876/sportswear-most-popular-brands-germany/</t>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand.top</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Italy</t>
-  </si>
-  <si>
-    <t>Lotto</t>
-  </si>
-  <si>
-    <t>Mizuno</t>
-  </si>
-  <si>
-    <t>Nike</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Athletic</t>
-  </si>
-  <si>
-    <t>PUMA</t>
-  </si>
-  <si>
-    <t>Reebok</t>
-  </si>
-  <si>
-    <t>sneaker</t>
-  </si>
-  <si>
-    <t>Reusch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>footwear</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>football</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>footwear</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>outdoor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>underwear</t>
-  </si>
-  <si>
-    <t>Sport2000</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t>Stance</t>
-  </si>
-  <si>
-    <t>Uhlsport</t>
-  </si>
-  <si>
-    <t>Under Armour</t>
-  </si>
-  <si>
-    <t>New Balance</t>
-  </si>
-  <si>
-    <t>brand.popularity</t>
-  </si>
-  <si>
-    <t>Adidas</t>
-  </si>
-  <si>
-    <t>Puma</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Asics**</t>
-  </si>
-  <si>
-    <t>Under Armour**</t>
-  </si>
-  <si>
-    <t>Other brands</t>
-  </si>
-  <si>
-    <t>source: surve results, https://www.statista.com/statistics/412876/sportswear-most-popular-brands-germany/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -266,7 +302,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -274,7 +310,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -282,35 +318,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -318,7 +354,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -326,14 +362,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -341,14 +377,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -356,7 +392,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -364,15 +400,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -724,48 +767,48 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -781,7 +824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1049,13 +1092,13 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1111,7 +1154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1135,7 +1178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1143,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1151,7 +1194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1183,7 +1226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1200,26 +1243,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,291 +1274,356 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8">
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>51</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1526,12 +1635,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>2014</v>
       </c>
@@ -1545,12 +1654,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>0.16300000000000001</v>
@@ -1565,12 +1674,12 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>0.105</v>
@@ -1585,12 +1694,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2">
         <v>7.1999999999999995E-2</v>
@@ -1605,12 +1714,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>4.5999999999999999E-2</v>
@@ -1625,52 +1734,52 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2">
         <v>0.14499999999999999</v>
@@ -1685,12 +1794,13 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/users/XiaodanLyu/fct_relabel.xlsx
+++ b/users/XiaodanLyu/fct_relabel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>old_levels</t>
   </si>
@@ -269,6 +269,70 @@
   </si>
   <si>
     <t>underwear</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kempa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>onitsuka</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diadora</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREAM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>football</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>handball</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>teamsport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Janpan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sells</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nike_group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asics_group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>adidas_group</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1250,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1327,7 @@
     <col min="3" max="3" width="13.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,10 +1341,22 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1294,10 +1370,22 @@
         <v>47</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1311,10 +1399,22 @@
         <v>72</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1328,10 +1428,22 @@
         <v>73</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1345,32 +1457,53 @@
         <v>72</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1379,32 +1512,56 @@
         <v>47</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1413,210 +1570,505 @@
         <v>47</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E10">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="E11">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
       <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="E19">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="E20">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="E21">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>6</v>
       </c>
     </row>

--- a/users/XiaodanLyu/fct_relabel.xlsx
+++ b/users/XiaodanLyu/fct_relabel.xlsx
@@ -276,10 +276,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>onitsuka</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Diadora</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -333,6 +329,10 @@
   </si>
   <si>
     <t>adidas_group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onitsuka</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -1341,16 +1341,16 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>93</v>
-      </c>
-      <c r="H1" t="s">
-        <v>94</v>
       </c>
       <c r="I1" t="s">
         <v>59</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -1529,16 +1529,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>84</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>79</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -1929,16 +1929,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
       </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>0</v>

--- a/users/XiaodanLyu/fct_relabel.xlsx
+++ b/users/XiaodanLyu/fct_relabel.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63139\Documents\GitHub\dmc2018\users\XiaodanLyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyux\odrive\Google Drive - Gmail\dmc2018\users\XiaodanLyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8237" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
     <sheet name="brand" sheetId="2" r:id="rId2"/>
-    <sheet name="brand_survey" sheetId="3" r:id="rId3"/>
+    <sheet name="size" sheetId="4" r:id="rId3"/>
+    <sheet name="brand_survey" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="261">
   <si>
     <t>old_levels</t>
   </si>
@@ -308,10 +309,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>teamsport</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Janpan</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -324,41 +321,539 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Nike_group</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asics_group</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>adidas_group</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>size1</t>
+  </si>
+  <si>
+    <t>size2</t>
+  </si>
+  <si>
+    <t>size3</t>
+  </si>
+  <si>
+    <t>size4</t>
+  </si>
+  <si>
+    <t>child.cloth</t>
+  </si>
+  <si>
+    <t>0 ( 128 )</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>0 ( 31-33 )</t>
+  </si>
+  <si>
+    <t>31-34</t>
+  </si>
+  <si>
+    <t>0 ( Bambini )</t>
+  </si>
+  <si>
+    <t>O.B</t>
+  </si>
+  <si>
+    <t>00 ( 27-30 )</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>XXS</t>
+  </si>
+  <si>
+    <t>01 Junior</t>
+  </si>
+  <si>
+    <t>O.J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>02 Senior</t>
+  </si>
+  <si>
+    <t>O.S</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>1 ( 140 )</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1 ( 25-30 )</t>
+  </si>
+  <si>
+    <t>1 ( 31-34 )</t>
+  </si>
+  <si>
+    <t>1 ( 33-36 )</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
+  <si>
+    <t>1 ( 34-36 )</t>
+  </si>
+  <si>
+    <t>1 ( Junior)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>10 (140)</t>
+  </si>
+  <si>
+    <t>10 (36-40)</t>
+  </si>
+  <si>
+    <t>10/12 (140-152)</t>
+  </si>
+  <si>
+    <t>140-152</t>
+  </si>
+  <si>
+    <t>102 (M)</t>
+  </si>
+  <si>
+    <t>Jako.M</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>116-122</t>
+  </si>
+  <si>
+    <t>116-128</t>
+  </si>
+  <si>
+    <t>116/128</t>
+  </si>
+  <si>
+    <t>12 (41-45)</t>
+  </si>
+  <si>
+    <t>41-45</t>
+  </si>
+  <si>
+    <t>14 (164)</t>
+  </si>
+  <si>
+    <t>14 (46-48)</t>
+  </si>
+  <si>
+    <t>47-50</t>
+  </si>
+  <si>
+    <t>14/16 (164-176)</t>
+  </si>
+  <si>
+    <t>164-176</t>
+  </si>
+  <si>
+    <t>140/152</t>
+  </si>
+  <si>
+    <t>16 (176)</t>
+  </si>
+  <si>
+    <t>164/176</t>
+  </si>
+  <si>
+    <t>19 (38)</t>
+  </si>
+  <si>
+    <t>Sh2</t>
+  </si>
+  <si>
+    <t>2 ( 152 )</t>
+  </si>
+  <si>
+    <t>2 ( 31-34 )</t>
+  </si>
+  <si>
+    <t>2 ( 35-38 )</t>
+  </si>
+  <si>
+    <t>2 ( 37-39 )</t>
+  </si>
+  <si>
+    <t>2 ( 37-40 )</t>
+  </si>
+  <si>
+    <t>2 ( Senior )</t>
+  </si>
+  <si>
+    <t>J.S</t>
+  </si>
+  <si>
+    <t>24 (M)</t>
+  </si>
+  <si>
+    <t>28 (3XL)</t>
+  </si>
+  <si>
+    <t>XL.3</t>
+  </si>
+  <si>
+    <t>Sh1</t>
+  </si>
+  <si>
+    <t>2XL</t>
+  </si>
+  <si>
+    <t>XL.2</t>
+  </si>
+  <si>
+    <t>2XL/T</t>
+  </si>
+  <si>
+    <t>3 ( 164 )</t>
+  </si>
+  <si>
+    <t>3 ( 39-42 )</t>
+  </si>
+  <si>
+    <t>3 ( 40-42 )</t>
+  </si>
+  <si>
+    <t>3 ( 41-43 )</t>
+  </si>
+  <si>
+    <t>3 (35-38 )</t>
+  </si>
+  <si>
+    <t>30 (5XL)</t>
+  </si>
+  <si>
+    <t>XL.5</t>
+  </si>
+  <si>
+    <t>31,5</t>
+  </si>
+  <si>
+    <t>33,5</t>
+  </si>
+  <si>
+    <t>35 - 38</t>
+  </si>
+  <si>
+    <t>35,5</t>
+  </si>
+  <si>
+    <t>35/38</t>
+  </si>
+  <si>
+    <t>36,5</t>
+  </si>
+  <si>
+    <t>37 - 40</t>
+  </si>
+  <si>
+    <t>37,5</t>
+  </si>
+  <si>
+    <t>38,5</t>
+  </si>
+  <si>
+    <t>38/40 ( M / L )</t>
+  </si>
+  <si>
+    <t>39 - 42</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>39,5</t>
+  </si>
+  <si>
+    <t>39/42</t>
+  </si>
+  <si>
+    <t>3XL</t>
+  </si>
+  <si>
+    <t>3XL/T</t>
+  </si>
+  <si>
+    <t>4 ( 39-42 )</t>
+  </si>
+  <si>
+    <t>4 ( 43-45 )</t>
+  </si>
+  <si>
+    <t>4 ( 43-46 )</t>
+  </si>
+  <si>
+    <t>44-46</t>
+  </si>
+  <si>
+    <t>4 ( 44-46 )</t>
+  </si>
+  <si>
+    <t>40,5</t>
+  </si>
+  <si>
+    <t>Sh3</t>
+  </si>
+  <si>
+    <t>41 - 44</t>
+  </si>
+  <si>
+    <t>41,5</t>
+  </si>
+  <si>
+    <t>42,5</t>
+  </si>
+  <si>
+    <t>43 - 46</t>
+  </si>
+  <si>
+    <t>43-46</t>
+  </si>
+  <si>
+    <t>43,5</t>
+  </si>
+  <si>
+    <t>43/46</t>
+  </si>
+  <si>
+    <t>Sh4</t>
+  </si>
+  <si>
+    <t>44,5</t>
+  </si>
+  <si>
+    <t>45 - 47</t>
+  </si>
+  <si>
+    <t>45-48</t>
+  </si>
+  <si>
+    <t>45,5</t>
+  </si>
+  <si>
+    <t>46,5</t>
+  </si>
+  <si>
+    <t>47 - 50</t>
+  </si>
+  <si>
+    <t>47,5</t>
+  </si>
+  <si>
+    <t>47/49</t>
+  </si>
+  <si>
+    <t>48,5</t>
+  </si>
+  <si>
+    <t>4XL</t>
+  </si>
+  <si>
+    <t>XL.4</t>
+  </si>
+  <si>
+    <t>5 ( 43-46 )</t>
+  </si>
+  <si>
+    <t>5 ( 46-48 )</t>
+  </si>
+  <si>
+    <t>5 ( 47-49 )</t>
+  </si>
+  <si>
+    <t>6 ( 47-50 )</t>
+  </si>
+  <si>
+    <t>6/8 (116-128)</t>
+  </si>
+  <si>
+    <t>7 ( L )</t>
+  </si>
+  <si>
+    <t>L.1</t>
+  </si>
+  <si>
+    <t>8 ( XL )</t>
+  </si>
+  <si>
+    <t>XL.12</t>
+  </si>
+  <si>
+    <t>L ( 152-158 )</t>
+  </si>
+  <si>
+    <t>N.L</t>
+  </si>
+  <si>
+    <t>L ( 40/42 )</t>
+  </si>
+  <si>
+    <t>L ( 42-46 )</t>
+  </si>
+  <si>
+    <t>L ( 42-47 )</t>
+  </si>
+  <si>
+    <t>L ( 44 )</t>
+  </si>
+  <si>
+    <t>L (43 - 46)</t>
+  </si>
+  <si>
+    <t>L/K</t>
+  </si>
+  <si>
+    <t>L.2</t>
+  </si>
+  <si>
+    <t>L/T</t>
+  </si>
+  <si>
+    <t>L/XL ( 39-47 )</t>
+  </si>
+  <si>
+    <t>M ( 140-152 )</t>
+  </si>
+  <si>
+    <t>N.M</t>
+  </si>
+  <si>
+    <t>M ( 38-42 )</t>
+  </si>
+  <si>
+    <t>M ( 38/40 )</t>
+  </si>
+  <si>
+    <t>M ( 40 )</t>
+  </si>
+  <si>
+    <t>M (38 - 42)</t>
+  </si>
+  <si>
+    <t>M/L</t>
+  </si>
+  <si>
+    <t>S ( 128-140 )</t>
+  </si>
+  <si>
+    <t>N.S</t>
+  </si>
+  <si>
+    <t>S ( 34-38 )</t>
+  </si>
+  <si>
+    <t>S ( 34/36 )</t>
+  </si>
+  <si>
+    <t>S ( 36 )</t>
+  </si>
+  <si>
+    <t>XL.11</t>
+  </si>
+  <si>
+    <t>XL ( 158-170 )</t>
+  </si>
+  <si>
+    <t>N.XL</t>
+  </si>
+  <si>
+    <t>XL ( 44/46 )</t>
+  </si>
+  <si>
+    <t>XL (46-48,5)</t>
+  </si>
+  <si>
+    <t>XL (46-50 )</t>
+  </si>
+  <si>
+    <t>XL/T</t>
+  </si>
+  <si>
+    <t>XS ( 116-128 )</t>
+  </si>
+  <si>
+    <t>N.XS</t>
+  </si>
+  <si>
+    <t>XS ( 30-34 )</t>
+  </si>
+  <si>
+    <t>XS ( 32 )</t>
+  </si>
+  <si>
+    <t>XS ( 32/34 )</t>
+  </si>
+  <si>
+    <t>XS/S</t>
+  </si>
+  <si>
+    <t>YLG 147,5-157,5</t>
+  </si>
+  <si>
+    <t>UA.L</t>
+  </si>
+  <si>
+    <t>YM 135-147,5</t>
+  </si>
+  <si>
+    <t>UA.M</t>
+  </si>
+  <si>
+    <t>YSM 125-135</t>
+  </si>
+  <si>
+    <t>UA.S</t>
+  </si>
+  <si>
+    <t>YXL 157,5-167,5</t>
+  </si>
+  <si>
+    <t>UA.XL</t>
+  </si>
+  <si>
+    <t>brand.group</t>
+  </si>
+  <si>
+    <t>teamsport</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -366,7 +861,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +869,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,35 +877,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -418,7 +913,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -426,14 +921,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -441,14 +936,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -456,7 +951,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -464,20 +959,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -824,55 +1319,64 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -888,7 +1392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,13 +1660,13 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1178,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1234,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1274,7 +1778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1314,20 +1818,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.765625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,22 +1848,13 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1369,23 +1867,14 @@
       <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1398,23 +1887,14 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1427,23 +1907,14 @@
       <c r="D4" t="s">
         <v>73</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>36</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1456,23 +1927,14 @@
       <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1482,23 +1944,14 @@
       <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>81</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1511,23 +1964,14 @@
       <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1540,23 +1984,14 @@
       <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>82</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1569,23 +2004,14 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1598,23 +2024,14 @@
       <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1627,23 +2044,14 @@
       <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>46</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1656,23 +2064,14 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>43</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1682,23 +2081,14 @@
       <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>260</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1711,23 +2101,14 @@
       <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1740,23 +2121,14 @@
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1769,23 +2141,14 @@
       <c r="D16" t="s">
         <v>72</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>58</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1798,49 +2161,31 @@
       <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>46</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>35</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1853,23 +2198,14 @@
       <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1882,23 +2218,14 @@
       <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>33</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1911,28 +2238,19 @@
       <c r="D21" t="s">
         <v>73</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>51</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1940,23 +2258,14 @@
       <c r="D22" t="s">
         <v>85</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>89</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1969,23 +2278,14 @@
       <c r="D23" t="s">
         <v>77</v>
       </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>53</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1998,23 +2298,14 @@
       <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="E24" t="s">
+        <v>55</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2027,23 +2318,14 @@
       <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" t="s">
+        <v>260</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2056,19 +2338,10 @@
       <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="E26" t="s">
+        <v>57</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
         <v>6</v>
       </c>
     </row>
@@ -2081,18 +2354,3619 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F179"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5">
+        <v>128</v>
+      </c>
+      <c r="C2" s="5">
+        <v>128</v>
+      </c>
+      <c r="D2" s="5">
+        <v>128</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="5">
+        <v>140</v>
+      </c>
+      <c r="C8" s="5">
+        <v>140</v>
+      </c>
+      <c r="D8" s="5">
+        <v>140</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="5">
+        <v>140</v>
+      </c>
+      <c r="C15" s="5">
+        <v>140</v>
+      </c>
+      <c r="D15" s="5">
+        <v>140</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
+        <v>104</v>
+      </c>
+      <c r="B19" s="5">
+        <v>104</v>
+      </c>
+      <c r="C19" s="5">
+        <v>104</v>
+      </c>
+      <c r="D19" s="5">
+        <v>104</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
+        <v>116</v>
+      </c>
+      <c r="B21" s="5">
+        <v>116</v>
+      </c>
+      <c r="C21" s="5">
+        <v>116</v>
+      </c>
+      <c r="D21" s="5">
+        <v>116</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5">
+        <v>128</v>
+      </c>
+      <c r="B25" s="5">
+        <v>128</v>
+      </c>
+      <c r="C25" s="5">
+        <v>128</v>
+      </c>
+      <c r="D25" s="5">
+        <v>128</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5">
+        <v>134</v>
+      </c>
+      <c r="B26" s="5">
+        <v>134</v>
+      </c>
+      <c r="C26" s="5">
+        <v>134</v>
+      </c>
+      <c r="D26" s="5">
+        <v>134</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="5">
+        <v>164</v>
+      </c>
+      <c r="C27" s="5">
+        <v>164</v>
+      </c>
+      <c r="D27" s="5">
+        <v>164</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5">
+        <v>140</v>
+      </c>
+      <c r="B30" s="5">
+        <v>140</v>
+      </c>
+      <c r="C30" s="5">
+        <v>140</v>
+      </c>
+      <c r="D30" s="5">
+        <v>140</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5">
+        <v>146</v>
+      </c>
+      <c r="B32" s="5">
+        <v>146</v>
+      </c>
+      <c r="C32" s="5">
+        <v>146</v>
+      </c>
+      <c r="D32" s="5">
+        <v>146</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5">
+        <v>152</v>
+      </c>
+      <c r="B33" s="5">
+        <v>152</v>
+      </c>
+      <c r="C33" s="5">
+        <v>152</v>
+      </c>
+      <c r="D33" s="5">
+        <v>152</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5">
+        <v>158</v>
+      </c>
+      <c r="B34" s="5">
+        <v>158</v>
+      </c>
+      <c r="C34" s="5">
+        <v>158</v>
+      </c>
+      <c r="D34" s="5">
+        <v>158</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="5">
+        <v>176</v>
+      </c>
+      <c r="C35" s="5">
+        <v>176</v>
+      </c>
+      <c r="D35" s="5">
+        <v>176</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5">
+        <v>164</v>
+      </c>
+      <c r="B36" s="5">
+        <v>164</v>
+      </c>
+      <c r="C36" s="5">
+        <v>164</v>
+      </c>
+      <c r="D36" s="5">
+        <v>164</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5">
+        <v>176</v>
+      </c>
+      <c r="B38" s="5">
+        <v>176</v>
+      </c>
+      <c r="C38" s="5">
+        <v>176</v>
+      </c>
+      <c r="D38" s="5">
+        <v>176</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="5">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <v>38</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="5">
+        <v>152</v>
+      </c>
+      <c r="C41" s="5">
+        <v>152</v>
+      </c>
+      <c r="D41" s="5">
+        <v>152</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5">
+        <v>29</v>
+      </c>
+      <c r="B49" s="5">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5">
+        <v>29</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5">
+        <v>3</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="5">
+        <v>164</v>
+      </c>
+      <c r="C53" s="5">
+        <v>164</v>
+      </c>
+      <c r="D53" s="5">
+        <v>164</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="5">
+        <v>3</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="5">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="5">
+        <v>3</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5">
+        <v>30</v>
+      </c>
+      <c r="B58" s="5">
+        <v>30</v>
+      </c>
+      <c r="C58" s="5">
+        <v>30</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5">
+        <v>31</v>
+      </c>
+      <c r="B60" s="5">
+        <v>31</v>
+      </c>
+      <c r="C60" s="5">
+        <v>31</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="5">
+        <v>31</v>
+      </c>
+      <c r="C61" s="5">
+        <v>31</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="5">
+        <v>32</v>
+      </c>
+      <c r="B62" s="5">
+        <v>32</v>
+      </c>
+      <c r="C62" s="5">
+        <v>32</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5">
+        <v>33</v>
+      </c>
+      <c r="B63" s="5">
+        <v>33</v>
+      </c>
+      <c r="C63" s="5">
+        <v>33</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="5">
+        <v>33</v>
+      </c>
+      <c r="C64" s="5">
+        <v>33</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="5">
+        <v>34</v>
+      </c>
+      <c r="B65" s="5">
+        <v>34</v>
+      </c>
+      <c r="C65" s="5">
+        <v>34</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="5">
+        <v>35</v>
+      </c>
+      <c r="B66" s="5">
+        <v>35</v>
+      </c>
+      <c r="C66" s="5">
+        <v>35</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="5">
+        <v>35</v>
+      </c>
+      <c r="C68" s="5">
+        <v>35</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="5">
+        <v>36</v>
+      </c>
+      <c r="B70" s="5">
+        <v>36</v>
+      </c>
+      <c r="C70" s="5">
+        <v>36</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="6">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="B71" s="5">
+        <v>36</v>
+      </c>
+      <c r="C71" s="5">
+        <v>36</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="5">
+        <v>36</v>
+      </c>
+      <c r="C72" s="5">
+        <v>36</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="5">
+        <v>37</v>
+      </c>
+      <c r="B73" s="5">
+        <v>37</v>
+      </c>
+      <c r="C73" s="5">
+        <v>37</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="6">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="B75" s="5">
+        <v>37</v>
+      </c>
+      <c r="C75" s="5">
+        <v>37</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="5">
+        <v>37</v>
+      </c>
+      <c r="C76" s="5">
+        <v>37</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="5">
+        <v>38</v>
+      </c>
+      <c r="B77" s="5">
+        <v>38</v>
+      </c>
+      <c r="C77" s="5">
+        <v>38</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="6">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="B78" s="5">
+        <v>38</v>
+      </c>
+      <c r="C78" s="5">
+        <v>38</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="5">
+        <v>38</v>
+      </c>
+      <c r="C79" s="5">
+        <v>38</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="5">
+        <v>39</v>
+      </c>
+      <c r="B81" s="5">
+        <v>39</v>
+      </c>
+      <c r="C81" s="5">
+        <v>39</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="5">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E82" s="5">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="6">
+        <v>39.333333333333336</v>
+      </c>
+      <c r="B83" s="5">
+        <v>39</v>
+      </c>
+      <c r="C83" s="5">
+        <v>39</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="5">
+        <v>2</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="5">
+        <v>3</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="5">
+        <v>39</v>
+      </c>
+      <c r="C85" s="5">
+        <v>39</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="5">
+        <v>2</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86" s="5">
+        <v>3</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="5">
+        <v>4</v>
+      </c>
+      <c r="B89" s="5">
+        <v>4</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="5">
+        <v>4</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E92" s="5">
+        <v>4</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="5">
+        <v>4</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="5">
+        <v>40</v>
+      </c>
+      <c r="B94" s="5">
+        <v>40</v>
+      </c>
+      <c r="C94" s="5">
+        <v>40</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="5">
+        <v>2</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="6">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="B95" s="5">
+        <v>40</v>
+      </c>
+      <c r="C95" s="5">
+        <v>40</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="5">
+        <v>2</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" s="5">
+        <v>40</v>
+      </c>
+      <c r="C96" s="5">
+        <v>40</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" s="5">
+        <v>2</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="5">
+        <v>41</v>
+      </c>
+      <c r="B97" s="5">
+        <v>41</v>
+      </c>
+      <c r="C97" s="5">
+        <v>41</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="5">
+        <v>3</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="5">
+        <v>3</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="6">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="B99" s="5">
+        <v>41</v>
+      </c>
+      <c r="C99" s="5">
+        <v>41</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" s="5">
+        <v>3</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B100" s="5">
+        <v>41</v>
+      </c>
+      <c r="C100" s="5">
+        <v>41</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E100" s="5">
+        <v>3</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="5">
+        <v>42</v>
+      </c>
+      <c r="B101" s="5">
+        <v>42</v>
+      </c>
+      <c r="C101" s="5">
+        <v>42</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" s="5">
+        <v>3</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="6">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="B102" s="5">
+        <v>42</v>
+      </c>
+      <c r="C102" s="5">
+        <v>42</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" s="5">
+        <v>3</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="5">
+        <v>42</v>
+      </c>
+      <c r="C103" s="5">
+        <v>42</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" s="5">
+        <v>3</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="5">
+        <v>43</v>
+      </c>
+      <c r="B104" s="5">
+        <v>43</v>
+      </c>
+      <c r="C104" s="5">
+        <v>43</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" s="5">
+        <v>3</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="5">
+        <v>4</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="6">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="B106" s="5">
+        <v>43</v>
+      </c>
+      <c r="C106" s="5">
+        <v>43</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E106" s="5">
+        <v>3</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" s="5">
+        <v>4</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="5">
+        <v>43</v>
+      </c>
+      <c r="C108" s="5">
+        <v>43</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E108" s="5">
+        <v>3</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" s="5">
+        <v>4</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="5">
+        <v>44</v>
+      </c>
+      <c r="B110" s="5">
+        <v>44</v>
+      </c>
+      <c r="C110" s="5">
+        <v>44</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E110" s="5">
+        <v>4</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="6">
+        <v>44.666666666666664</v>
+      </c>
+      <c r="B111" s="5">
+        <v>44</v>
+      </c>
+      <c r="C111" s="5">
+        <v>44</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" s="5">
+        <v>4</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="5">
+        <v>44</v>
+      </c>
+      <c r="C112" s="5">
+        <v>44</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E112" s="5">
+        <v>4</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="5">
+        <v>45</v>
+      </c>
+      <c r="B113" s="5">
+        <v>45</v>
+      </c>
+      <c r="C113" s="5">
+        <v>45</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E113" s="5">
+        <v>4</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E114" s="5">
+        <v>4</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="6">
+        <v>45.333333333333336</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45</v>
+      </c>
+      <c r="C115" s="5">
+        <v>45</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E115" s="5">
+        <v>4</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="5">
+        <v>5</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45</v>
+      </c>
+      <c r="C117" s="5">
+        <v>45</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E117" s="5">
+        <v>4</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="5">
+        <v>46</v>
+      </c>
+      <c r="B118" s="5">
+        <v>46</v>
+      </c>
+      <c r="C118" s="5">
+        <v>46</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E118" s="5">
+        <v>4</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="6">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="B119" s="5">
+        <v>46</v>
+      </c>
+      <c r="C119" s="5">
+        <v>46</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E119" s="5">
+        <v>4</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B120" s="5">
+        <v>46</v>
+      </c>
+      <c r="C120" s="5">
+        <v>46</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E120" s="5">
+        <v>4</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="5">
+        <v>47</v>
+      </c>
+      <c r="B121" s="5">
+        <v>47</v>
+      </c>
+      <c r="C121" s="5">
+        <v>47</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E121" s="5">
+        <v>5</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" s="5">
+        <v>6</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="6">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="B123" s="5">
+        <v>47</v>
+      </c>
+      <c r="C123" s="5">
+        <v>47</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E123" s="5">
+        <v>5</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="5">
+        <v>47</v>
+      </c>
+      <c r="C124" s="5">
+        <v>47</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E124" s="5">
+        <v>5</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E125" s="5">
+        <v>5</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="5">
+        <v>48</v>
+      </c>
+      <c r="B126" s="5">
+        <v>48</v>
+      </c>
+      <c r="C126" s="5">
+        <v>48</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E126" s="5">
+        <v>5</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="6">
+        <v>48.666666666666664</v>
+      </c>
+      <c r="B127" s="5">
+        <v>48</v>
+      </c>
+      <c r="C127" s="5">
+        <v>48</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E127" s="5">
+        <v>5</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="5">
+        <v>48</v>
+      </c>
+      <c r="C128" s="5">
+        <v>48</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" s="5">
+        <v>5</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="5">
+        <v>5</v>
+      </c>
+      <c r="B130" s="5">
+        <v>5</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="5">
+        <v>4</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E132" s="5">
+        <v>5</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E133" s="5">
+        <v>5</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="5">
+        <v>6</v>
+      </c>
+      <c r="B134" s="5">
+        <v>6</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E135" s="5">
+        <v>6</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="5">
+        <v>7</v>
+      </c>
+      <c r="B137" s="5">
+        <v>7</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="5">
+        <v>8</v>
+      </c>
+      <c r="B139" s="5">
+        <v>8</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="5">
+        <v>9</v>
+      </c>
+      <c r="B141" s="5">
+        <v>9</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="5">
+        <v>4</v>
+      </c>
+      <c r="F145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E146" s="5">
+        <v>5</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E148" s="5">
+        <v>4</v>
+      </c>
+      <c r="F148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E151" s="5">
+        <v>5</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E154" s="5">
+        <v>3</v>
+      </c>
+      <c r="F154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E157" s="5">
+        <v>3</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E167" s="5">
+        <v>5</v>
+      </c>
+      <c r="F167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E168" s="5">
+        <v>6</v>
+      </c>
+      <c r="F168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F171" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F179" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="C1">
         <v>2014</v>
       </c>
@@ -2106,7 +5980,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2126,7 +6000,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2146,7 +6020,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2166,7 +6040,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2186,7 +6060,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>17</v>
       </c>
@@ -2206,7 +6080,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>19</v>
       </c>
@@ -2226,7 +6100,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>22</v>
       </c>
@@ -2246,7 +6120,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>66</v>
       </c>

--- a/users/XiaodanLyu/fct_relabel.xlsx
+++ b/users/XiaodanLyu/fct_relabel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyux\odrive\Google Drive - Gmail\dmc2018\users\XiaodanLyu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\63139\Documents\GitHub\dmc2018\users\XiaodanLyu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8237" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="color" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="270">
   <si>
     <t>old_levels</t>
   </si>
@@ -277,10 +277,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>onitsuka</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Diadora</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -829,31 +825,71 @@
   </si>
   <si>
     <t>teamsport</t>
+  </si>
+  <si>
+    <t>Onitsuka</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>German.player</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>German.football.club</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBA.team</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBA.player</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Football.team</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Football.player</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>other.player</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>other.team</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>competition</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -861,7 +897,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -869,7 +905,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -877,35 +913,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -913,7 +949,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -921,14 +957,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -936,14 +972,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -951,7 +987,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -959,21 +995,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1319,7 +1362,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1333,50 +1376,53 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1392,7 +1438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1660,13 +1706,13 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1682,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1706,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1714,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1722,7 +1768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1730,7 +1776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +1784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1746,7 +1792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +1800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1762,7 +1808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1770,7 +1816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +1840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1818,23 +1864,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G1" sqref="G1:O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.84375" customWidth="1"/>
+    <col min="6" max="6" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1848,13 +1894,40 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1873,8 +1946,35 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="7">
+        <v>56</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1893,8 +1993,35 @@
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1913,8 +2040,35 @@
       <c r="F4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1933,25 +2087,79 @@
       <c r="F5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1970,28 +2178,82 @@
       <c r="F7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2010,8 +2272,35 @@
       <c r="F9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2030,8 +2319,35 @@
       <c r="F10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2050,8 +2366,35 @@
       <c r="F11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2070,25 +2413,79 @@
       <c r="F12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
         <v>86</v>
       </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2107,8 +2504,35 @@
       <c r="F14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2551,35 @@
       <c r="F15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2147,8 +2598,35 @@
       <c r="F16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2167,13 +2645,40 @@
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="7">
+        <v>6</v>
+      </c>
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
         <v>72</v>
@@ -2184,8 +2689,35 @@
       <c r="F18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2204,8 +2736,35 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="7">
+        <v>18</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2224,8 +2783,35 @@
       <c r="F20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2244,28 +2830,82 @@
       <c r="F21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -2284,8 +2924,35 @@
       <c r="F23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2304,8 +2971,35 @@
       <c r="F24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2319,13 +3013,40 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>6</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2343,6 +3064,33 @@
       </c>
       <c r="F26">
         <v>6</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2360,37 +3108,37 @@
       <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.3828125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="B2" s="5">
         <v>128</v>
@@ -2402,115 +3150,115 @@
         <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="B8" s="5">
         <v>140</v>
@@ -2522,104 +3270,104 @@
         <v>140</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
@@ -2628,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -2636,21 +3384,21 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="B15" s="5">
         <v>140</v>
@@ -2662,24 +3410,24 @@
         <v>140</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -2688,47 +3436,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>104</v>
       </c>
@@ -2742,13 +3490,13 @@
         <v>104</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -2756,19 +3504,19 @@
         <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>116</v>
       </c>
@@ -2782,64 +3530,64 @@
         <v>116</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="5">
         <v>3</v>
@@ -2848,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>128</v>
       </c>
@@ -2862,13 +3610,13 @@
         <v>128</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>134</v>
       </c>
@@ -2882,15 +3630,15 @@
         <v>134</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="5">
         <v>164</v>
@@ -2902,24 +3650,24 @@
         <v>164</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="5">
         <v>5</v>
@@ -2928,27 +3676,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>140</v>
       </c>
@@ -2962,33 +3710,33 @@
         <v>140</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>146</v>
       </c>
@@ -3002,13 +3750,13 @@
         <v>146</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>152</v>
       </c>
@@ -3022,13 +3770,13 @@
         <v>152</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>158</v>
       </c>
@@ -3042,15 +3790,15 @@
         <v>158</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="5">
         <v>176</v>
@@ -3062,13 +3810,13 @@
         <v>176</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>164</v>
       </c>
@@ -3082,33 +3830,33 @@
         <v>164</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>176</v>
       </c>
@@ -3122,15 +3870,15 @@
         <v>176</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B39" s="5">
         <v>38</v>
@@ -3139,16 +3887,16 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -3156,21 +3904,21 @@
         <v>2</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" s="5">
         <v>152</v>
@@ -3182,84 +3930,84 @@
         <v>152</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
+      <c r="B43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
+      <c r="B44" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="5">
         <v>2</v>
@@ -3268,18 +4016,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E46" s="5">
         <v>2</v>
@@ -3288,47 +4036,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>29</v>
       </c>
@@ -3339,56 +4087,56 @@
         <v>29</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="5">
-        <v>0</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="B51" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>3</v>
       </c>
@@ -3396,21 +4144,21 @@
         <v>3</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" s="5">
         <v>164</v>
@@ -3422,24 +4170,24 @@
         <v>164</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="5">
         <v>3</v>
@@ -3448,18 +4196,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E55" s="5">
         <v>3</v>
@@ -3468,18 +4216,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
@@ -3488,18 +4236,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -3508,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>30</v>
       </c>
@@ -3519,7 +4267,7 @@
         <v>30</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -3528,27 +4276,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>31</v>
       </c>
@@ -3559,7 +4307,7 @@
         <v>31</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E60" s="5">
         <v>0</v>
@@ -3568,9 +4316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" s="5">
         <v>31</v>
@@ -3579,7 +4327,7 @@
         <v>31</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E61" s="5">
         <v>0</v>
@@ -3588,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>32</v>
       </c>
@@ -3599,7 +4347,7 @@
         <v>32</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E62" s="5">
         <v>0</v>
@@ -3608,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>33</v>
       </c>
@@ -3619,7 +4367,7 @@
         <v>33</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -3628,9 +4376,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="5">
         <v>33</v>
@@ -3639,7 +4387,7 @@
         <v>33</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E64" s="5">
         <v>0</v>
@@ -3648,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>34</v>
       </c>
@@ -3659,7 +4407,7 @@
         <v>34</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -3668,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>35</v>
       </c>
@@ -3679,7 +4427,7 @@
         <v>35</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E66" s="5">
         <v>0</v>
@@ -3688,29 +4436,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1</v>
-      </c>
-      <c r="F67" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="B68" s="5">
         <v>35</v>
@@ -3719,7 +4467,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -3728,18 +4476,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -3748,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>36</v>
       </c>
@@ -3759,7 +4507,7 @@
         <v>36</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -3768,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>36.666666666666664</v>
       </c>
@@ -3779,7 +4527,7 @@
         <v>36</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -3788,9 +4536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B72" s="5">
         <v>36</v>
@@ -3799,7 +4547,7 @@
         <v>36</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -3808,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>37</v>
       </c>
@@ -3819,7 +4567,7 @@
         <v>37</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E73" s="5">
         <v>1</v>
@@ -3828,18 +4576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" s="5">
         <v>2</v>
@@ -3848,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>37.333333333333336</v>
       </c>
@@ -3859,7 +4607,7 @@
         <v>37</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -3868,9 +4616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76" s="5">
         <v>37</v>
@@ -3879,7 +4627,7 @@
         <v>37</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
@@ -3888,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>38</v>
       </c>
@@ -3899,7 +4647,7 @@
         <v>38</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E77" s="5">
         <v>1</v>
@@ -3908,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>38.666666666666664</v>
       </c>
@@ -3919,7 +4667,7 @@
         <v>38</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -3928,9 +4676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B79" s="5">
         <v>38</v>
@@ -3939,7 +4687,7 @@
         <v>38</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
@@ -3948,27 +4696,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>39</v>
       </c>
@@ -3979,7 +4727,7 @@
         <v>39</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" s="5">
         <v>2</v>
@@ -3988,18 +4736,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E82" s="5">
         <v>3</v>
@@ -4008,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>39.333333333333336</v>
       </c>
@@ -4019,7 +4767,7 @@
         <v>39</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="5">
         <v>2</v>
@@ -4028,18 +4776,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E84" s="5">
         <v>3</v>
@@ -4048,9 +4796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" s="5">
         <v>39</v>
@@ -4059,7 +4807,7 @@
         <v>39</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E85" s="5">
         <v>2</v>
@@ -4068,18 +4816,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="5">
         <v>3</v>
@@ -4088,47 +4836,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="B88" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>4</v>
       </c>
@@ -4136,30 +4884,30 @@
         <v>4</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E90" s="5">
         <v>3</v>
@@ -4168,18 +4916,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E91" s="5">
         <v>4</v>
@@ -4188,18 +4936,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="C92" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E92" s="5">
         <v>4</v>
@@ -4208,18 +4956,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E93" s="5">
         <v>4</v>
@@ -4228,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>40</v>
       </c>
@@ -4239,7 +4987,7 @@
         <v>40</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E94" s="5">
         <v>2</v>
@@ -4248,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>40.666666666666664</v>
       </c>
@@ -4259,7 +5007,7 @@
         <v>40</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E95" s="5">
         <v>2</v>
@@ -4268,9 +5016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B96" s="5">
         <v>40</v>
@@ -4279,7 +5027,7 @@
         <v>40</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E96" s="5">
         <v>2</v>
@@ -4288,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>41</v>
       </c>
@@ -4299,7 +5047,7 @@
         <v>41</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E97" s="5">
         <v>3</v>
@@ -4308,18 +5056,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E98" s="5">
         <v>3</v>
@@ -4328,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>41.333333333333336</v>
       </c>
@@ -4339,7 +5087,7 @@
         <v>41</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E99" s="5">
         <v>3</v>
@@ -4348,9 +5096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B100" s="5">
         <v>41</v>
@@ -4359,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E100" s="5">
         <v>3</v>
@@ -4368,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>42</v>
       </c>
@@ -4379,7 +5127,7 @@
         <v>42</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E101" s="5">
         <v>3</v>
@@ -4388,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>42.666666666666664</v>
       </c>
@@ -4399,7 +5147,7 @@
         <v>42</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E102" s="5">
         <v>3</v>
@@ -4408,9 +5156,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B103" s="5">
         <v>42</v>
@@ -4419,7 +5167,7 @@
         <v>42</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E103" s="5">
         <v>3</v>
@@ -4428,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>43</v>
       </c>
@@ -4439,7 +5187,7 @@
         <v>43</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E104" s="5">
         <v>3</v>
@@ -4448,18 +5196,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E105" s="5">
         <v>4</v>
@@ -4468,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>43.333333333333336</v>
       </c>
@@ -4479,7 +5227,7 @@
         <v>43</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E106" s="5">
         <v>3</v>
@@ -4488,18 +5236,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E107" s="5">
         <v>4</v>
@@ -4508,9 +5256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B108" s="5">
         <v>43</v>
@@ -4519,7 +5267,7 @@
         <v>43</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E108" s="5">
         <v>3</v>
@@ -4528,18 +5276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E109" s="5">
         <v>4</v>
@@ -4548,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>44</v>
       </c>
@@ -4559,7 +5307,7 @@
         <v>44</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E110" s="5">
         <v>4</v>
@@ -4568,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>44.666666666666664</v>
       </c>
@@ -4579,7 +5327,7 @@
         <v>44</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E111" s="5">
         <v>4</v>
@@ -4588,9 +5336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B112" s="5">
         <v>44</v>
@@ -4599,7 +5347,7 @@
         <v>44</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E112" s="5">
         <v>4</v>
@@ -4608,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>45</v>
       </c>
@@ -4619,7 +5367,7 @@
         <v>45</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E113" s="5">
         <v>4</v>
@@ -4628,18 +5376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E114" s="5">
         <v>4</v>
@@ -4648,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>45.333333333333336</v>
       </c>
@@ -4659,7 +5407,7 @@
         <v>45</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E115" s="5">
         <v>4</v>
@@ -4668,18 +5416,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E116" s="5">
         <v>5</v>
@@ -4688,9 +5436,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B117" s="5">
         <v>45</v>
@@ -4699,7 +5447,7 @@
         <v>45</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E117" s="5">
         <v>4</v>
@@ -4708,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>46</v>
       </c>
@@ -4719,7 +5467,7 @@
         <v>46</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E118" s="5">
         <v>4</v>
@@ -4728,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>46.666666666666664</v>
       </c>
@@ -4739,7 +5487,7 @@
         <v>46</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E119" s="5">
         <v>4</v>
@@ -4748,9 +5496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B120" s="5">
         <v>46</v>
@@ -4759,7 +5507,7 @@
         <v>46</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E120" s="5">
         <v>4</v>
@@ -4768,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>47</v>
       </c>
@@ -4779,7 +5527,7 @@
         <v>47</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E121" s="5">
         <v>5</v>
@@ -4788,18 +5536,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E122" s="5">
         <v>6</v>
@@ -4808,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>47.333333333333336</v>
       </c>
@@ -4819,7 +5567,7 @@
         <v>47</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E123" s="5">
         <v>5</v>
@@ -4828,9 +5576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B124" s="5">
         <v>47</v>
@@ -4839,7 +5587,7 @@
         <v>47</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E124" s="5">
         <v>5</v>
@@ -4848,18 +5596,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E125" s="5">
         <v>5</v>
@@ -4868,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>48</v>
       </c>
@@ -4879,7 +5627,7 @@
         <v>48</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E126" s="5">
         <v>5</v>
@@ -4888,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>48.666666666666664</v>
       </c>
@@ -4899,7 +5647,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E127" s="5">
         <v>5</v>
@@ -4908,9 +5656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B128" s="5">
         <v>48</v>
@@ -4919,7 +5667,7 @@
         <v>48</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E128" s="5">
         <v>5</v>
@@ -4928,27 +5676,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="C129" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>5</v>
       </c>
@@ -4956,30 +5704,30 @@
         <v>5</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E131" s="5">
         <v>4</v>
@@ -4988,18 +5736,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E132" s="5">
         <v>5</v>
@@ -5008,18 +5756,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E133" s="5">
         <v>5</v>
@@ -5028,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>6</v>
       </c>
@@ -5036,30 +5784,30 @@
         <v>6</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E135" s="5">
         <v>6</v>
@@ -5068,27 +5816,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F136" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>7</v>
       </c>
@@ -5096,39 +5844,39 @@
         <v>7</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="C138" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F138" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>8</v>
       </c>
@@ -5136,39 +5884,39 @@
         <v>8</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F139" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B140" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="C140" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F140" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>9</v>
       </c>
@@ -5176,90 +5924,90 @@
         <v>9</v>
       </c>
       <c r="C141" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="F141" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F142" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="C143" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F143" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="5" t="s">
+      <c r="B144" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F144" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="B145" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E145" s="5">
         <v>4</v>
@@ -5268,18 +6016,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E146" s="5">
         <v>5</v>
@@ -5288,38 +6036,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F147" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="B148" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E148" s="5">
         <v>4</v>
@@ -5328,58 +6076,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="C149" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F149" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="5" t="s">
+      <c r="B150" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F150" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="B151" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E151" s="5">
         <v>5</v>
@@ -5388,58 +6136,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F152" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B153" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="C153" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F153" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="B154" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E154" s="5">
         <v>3</v>
@@ -5448,58 +6196,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F155" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="5" t="s">
+      <c r="B156" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D156" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F156" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="B157" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E157" s="5">
         <v>3</v>
@@ -5508,198 +6256,198 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F158" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F159" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="5" t="s">
+      <c r="B160" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="C160" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="5" t="s">
+      <c r="B161" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E161" s="5">
+        <v>1</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E161" s="5">
-        <v>1</v>
-      </c>
-      <c r="F161" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="5" t="s">
+      <c r="B162" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F162" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="5" t="s">
+      <c r="B163" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B164" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B163" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F163" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B164" s="5" t="s">
+      <c r="C164" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F164" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="5" t="s">
+      <c r="B165" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="C165" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F165" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="5" t="s">
+      <c r="B166" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F166" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="B167" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E167" s="5">
         <v>5</v>
@@ -5708,18 +6456,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E168" s="5">
         <v>6</v>
@@ -5728,227 +6476,228 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F169" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F170" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="5" t="s">
+      <c r="B171" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="C171" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F171" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F171" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="5" t="s">
+      <c r="B172" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E172" s="5">
-        <v>0</v>
-      </c>
-      <c r="F172" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="5" t="s">
+      <c r="B173" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F173" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="5" t="s">
+      <c r="B174" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F174" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="5" t="s">
+      <c r="B175" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F175" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="5" t="s">
+      <c r="B176" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="C176" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F176" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F176" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="5" t="s">
+      <c r="B177" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="C177" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F177" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F177" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="5" t="s">
+      <c r="B178" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="C178" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F178" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F178" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="5" t="s">
+      <c r="B179" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="C179" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F179" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5961,12 +6710,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>2014</v>
       </c>
@@ -5980,7 +6729,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6000,7 +6749,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6020,7 +6769,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6040,7 +6789,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6060,7 +6809,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>17</v>
       </c>
@@ -6080,7 +6829,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19</v>
       </c>
@@ -6100,7 +6849,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>22</v>
       </c>
@@ -6120,7 +6869,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>66</v>
       </c>

--- a/users/XiaodanLyu/fct_relabel.xlsx
+++ b/users/XiaodanLyu/fct_relabel.xlsx
@@ -831,39 +831,39 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>German.player</t>
+    <t>brand.German.player</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>German.football.club</t>
+    <t>brand.German.football.club</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>NBA.team</t>
+    <t>brand.NBA.team</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>NBA.player</t>
+    <t>brand.NBA.player</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Football.team</t>
+    <t>brand.Football.team</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Football.player</t>
+    <t>brand.Football.player</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>other.player</t>
+    <t>brand.other.player</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>other.team</t>
+    <t>brand.other.team</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>competition</t>
+    <t>brand.competition</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:O26"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
